--- a/user study1/Study1 Reuslt/p1_annotate.xlsx
+++ b/user study1/Study1 Reuslt/p1_annotate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31295\Desktop\tosem\PromptSapper\user study1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31295\Desktop\tosem\PromptSapper\user study1\Study1 Reuslt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2900A3-F84D-46A5-BDC8-412355BBCA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47D9B7-CBF4-4C06-B736-70E344494310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BA99CF8-8030-48E3-9034-37E140C9B7B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1BA99CF8-8030-48E3-9034-37E140C9B7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -75,30 +75,6 @@
     <t>Task4</t>
   </si>
   <si>
-    <t>耗时（搜索+写代码）秒</t>
-  </si>
-  <si>
-    <t>耗时（测试）秒</t>
-  </si>
-  <si>
-    <t>测试开始的时间</t>
-  </si>
-  <si>
-    <r>
-      <t>是否做对了 （如果做错了，哪里做错了）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y/N</t>
-    </r>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -107,9 +83,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>错误1</t>
-  </si>
-  <si>
     <t>多加了回复反馈功能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -118,60 +91,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>错误2</t>
-  </si>
-  <si>
     <t>应调用3.5模型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>错误3</t>
-  </si>
-  <si>
-    <t>错误4</t>
-  </si>
-  <si>
-    <t>是否通过测试发现了问题，然后重新修改？（Y/N）</t>
-  </si>
-  <si>
-    <r>
-      <t>测试1是否通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Y/N</t>
-    </r>
-  </si>
-  <si>
-    <t>没通过的原因？</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">测试2是否通过 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Y/N</t>
-    </r>
-  </si>
-  <si>
-    <t>耗时的地方以及可能的原因1</t>
-  </si>
-  <si>
     <t>搜素代码耗时</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -192,9 +115,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>耗时的地方以及可能的原因2</t>
-  </si>
-  <si>
     <t>登录openai账户耗时</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -207,18 +127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>耗时的地方以及可能的原因3</t>
-  </si>
-  <si>
-    <t>耗时的地方以及可能的原因4</t>
-  </si>
-  <si>
-    <t>SapperV2是否使用了design View Y/N</t>
-  </si>
-  <si>
-    <t>如果没使用，你觉得原因是什么</t>
-  </si>
-  <si>
     <t>只需要改部分模块，没有必要</t>
   </si>
   <si>
@@ -226,9 +134,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>如果是，怎么用的？</t>
-  </si>
-  <si>
     <t>直接输入相应的模块</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -237,21 +142,87 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">是否有对生成的代码进行修改 </t>
-  </si>
-  <si>
     <t>任务理解错误，挑时候发现，然后多次修改，还自己添加要求</t>
   </si>
   <si>
     <t>p1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time (search + code writing) seconds</t>
+  </si>
+  <si>
+    <t>Time (test) seconds</t>
+  </si>
+  <si>
+    <t>Test start time</t>
+  </si>
+  <si>
+    <t>Was it done correctly? (If done incorrectly, where was it done incorrectly?) Y/N</t>
+  </si>
+  <si>
+    <t>Error1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you identify issues through testing and make revisions? (Y/N)</t>
+  </si>
+  <si>
+    <t>Did Test 1 pass? Y/N</t>
+  </si>
+  <si>
+    <t>Reason for failure</t>
+  </si>
+  <si>
+    <t>Did Test 2 pass? Y/N</t>
+  </si>
+  <si>
+    <t>Reason for failure?</t>
+  </si>
+  <si>
+    <t>Time-consuming aspects and potential reasons: 1</t>
+  </si>
+  <si>
+    <t>Time-consuming aspects and potential reasons: 2</t>
+  </si>
+  <si>
+    <t>Time-consuming aspects and potential reasons: 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time-consuming aspects and potential reasons: 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Was SapperV2 used with the Design View? Y/N</t>
+  </si>
+  <si>
+    <t>If not used, what do you think is the reason?</t>
+  </si>
+  <si>
+    <t>If yes, how was it used?</t>
+  </si>
+  <si>
+    <t>Did you make any modifications to the generated code?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,13 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Menlo"/>
@@ -659,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,18 +635,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -713,8 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +686,7 @@
     <xf numFmtId="20" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1091,385 +1055,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C0469-D018-4D63-A902-B2F1968031DC}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="34.125" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="65"/>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="57" customFormat="1" ht="15.75">
+    <row r="1" spans="1:13" s="57" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1">
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1">
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" s="57" customFormat="1" ht="15.75">
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1">
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1">
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1">
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1">
-      <c r="K9" s="59"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1">
-      <c r="K10" s="59"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1">
-      <c r="K11" s="59"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1">
-      <c r="K12" s="59"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1">
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="66" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
+    </row>
+    <row r="4" spans="1:13" s="57" customFormat="1" ht="15.6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="17">
+        <v>690</v>
+      </c>
+      <c r="C5" s="18">
+        <v>270</v>
+      </c>
+      <c r="D5" s="18">
+        <v>651</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1234</v>
+      </c>
+      <c r="F5" s="17">
+        <v>185</v>
+      </c>
+      <c r="G5" s="20">
+        <v>273</v>
+      </c>
+      <c r="H5" s="20">
+        <v>237</v>
+      </c>
+      <c r="I5" s="21">
+        <v>457</v>
+      </c>
+      <c r="J5" s="22">
+        <v>190</v>
+      </c>
+      <c r="K5" s="60">
+        <v>682</v>
+      </c>
+      <c r="L5" s="18">
+        <v>245</v>
+      </c>
+      <c r="M5" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="23">
+        <v>7</v>
+      </c>
+      <c r="C6" s="24">
+        <v>89</v>
+      </c>
+      <c r="D6" s="24">
+        <v>92</v>
+      </c>
+      <c r="E6" s="25">
+        <v>98</v>
+      </c>
+      <c r="F6" s="26">
+        <v>75</v>
+      </c>
+      <c r="G6" s="27">
+        <v>93</v>
+      </c>
+      <c r="H6" s="27">
+        <v>91</v>
+      </c>
+      <c r="I6" s="28">
+        <v>56</v>
+      </c>
+      <c r="J6" s="29">
+        <v>35</v>
+      </c>
+      <c r="K6" s="60">
+        <v>258</v>
+      </c>
+      <c r="L6" s="30">
+        <v>151</v>
+      </c>
+      <c r="M6" s="31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.1875</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="J7" s="37">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="K7" s="61">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="L7" s="33">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="M7" s="34">
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="A8" s="14"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="A9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="42">
+      <c r="A10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="28.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="A12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="15.6">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.6">
+      <c r="A15" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.6">
       <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75">
+        <v>40</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.6">
+      <c r="A17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.6">
       <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="17">
-        <v>690</v>
-      </c>
-      <c r="C18" s="18">
-        <v>270</v>
-      </c>
-      <c r="D18" s="18">
-        <v>651</v>
-      </c>
-      <c r="E18" s="19">
-        <v>1234</v>
-      </c>
-      <c r="F18" s="17">
-        <v>185</v>
-      </c>
-      <c r="G18" s="20">
-        <v>273</v>
-      </c>
-      <c r="H18" s="20">
-        <v>237</v>
-      </c>
-      <c r="I18" s="21">
-        <v>457</v>
-      </c>
-      <c r="J18" s="22">
-        <v>190</v>
-      </c>
-      <c r="K18" s="61">
-        <v>682</v>
-      </c>
-      <c r="L18" s="18">
-        <v>245</v>
-      </c>
-      <c r="M18" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75">
+        <v>42</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.6">
       <c r="A19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="23">
-        <v>7</v>
-      </c>
-      <c r="C19" s="24">
-        <v>89</v>
-      </c>
-      <c r="D19" s="24">
-        <v>92</v>
-      </c>
-      <c r="E19" s="25">
-        <v>98</v>
-      </c>
-      <c r="F19" s="26">
-        <v>75</v>
-      </c>
-      <c r="G19" s="27">
-        <v>93</v>
-      </c>
-      <c r="H19" s="27">
-        <v>91</v>
-      </c>
-      <c r="I19" s="28">
-        <v>56</v>
-      </c>
-      <c r="J19" s="29">
-        <v>35</v>
-      </c>
-      <c r="K19" s="61">
-        <v>258</v>
-      </c>
-      <c r="L19" s="30">
-        <v>151</v>
-      </c>
-      <c r="M19" s="31">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="32">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C20" s="33">
-        <v>0.1875</v>
-      </c>
-      <c r="D20" s="33">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="E20" s="34">
-        <v>0.8569444444444444</v>
-      </c>
-      <c r="F20" s="32">
-        <v>0.12847222222222224</v>
-      </c>
-      <c r="G20" s="35">
-        <v>0.18958333333333333</v>
-      </c>
-      <c r="H20" s="35">
-        <v>0.16458333333333333</v>
-      </c>
-      <c r="I20" s="36">
-        <v>0.31736111111111115</v>
-      </c>
-      <c r="J20" s="37">
-        <v>0.13194444444444445</v>
-      </c>
-      <c r="K20" s="62">
-        <v>0.47361111111111115</v>
-      </c>
-      <c r="L20" s="33">
-        <v>0.17013888888888887</v>
-      </c>
-      <c r="M20" s="34">
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75">
-      <c r="A21" s="14"/>
-      <c r="B21" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="61"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="30"/>
       <c r="M21" s="31"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75">
-      <c r="A22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>16</v>
-      </c>
+    <row r="22" spans="1:13" ht="28.2">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="60" t="s">
+        <v>21</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="43.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="62.4">
       <c r="A23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="40"/>
+        <v>45</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="D23" s="24"/>
       <c r="E23" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
       <c r="I23" s="43"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="61" t="s">
-        <v>20</v>
+      <c r="K23" s="60" t="s">
+        <v>24</v>
       </c>
       <c r="L23" s="30"/>
       <c r="M23" s="31"/>
     </row>
-    <row r="24" spans="1:13" ht="29.25">
+    <row r="24" spans="1:13" ht="111">
       <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="B24" s="45"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="39"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="61"/>
+      <c r="K24" s="62" t="s">
+        <v>29</v>
+      </c>
       <c r="L24" s="18"/>
       <c r="M24" s="19"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75">
+    <row r="25" spans="1:13" ht="15.6">
       <c r="A25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="B25" s="46"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
@@ -1478,14 +1707,12 @@
       <c r="H25" s="42"/>
       <c r="I25" s="43"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="61"/>
+      <c r="K25" s="60"/>
       <c r="L25" s="30"/>
       <c r="M25" s="31"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="26" spans="1:13" ht="15.6">
+      <c r="A26" s="1"/>
       <c r="B26" s="22"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1493,14 +1720,14 @@
       <c r="F26" s="22"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="39"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="61"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="18"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:13" ht="15.6">
+      <c r="A27" s="14"/>
       <c r="B27" s="40"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -1508,409 +1735,99 @@
       <c r="F27" s="41"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="29"/>
-      <c r="K27" s="61"/>
+      <c r="K27" s="60"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:13">
+      <c r="A28" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="55.2">
+      <c r="A29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75">
-      <c r="A29" s="1" t="s">
+      <c r="M29" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75">
-      <c r="A30" s="14" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="42">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75">
-      <c r="A31" s="1" t="s">
+      <c r="K30" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75">
-      <c r="A32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="2"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75">
-      <c r="A34" s="3"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
-    </row>
-    <row r="35" spans="1:13" ht="29.25">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="47.25">
-      <c r="A36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="31"/>
-    </row>
-    <row r="37" spans="1:13" ht="114.75">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75">
-      <c r="A38" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75">
-      <c r="A39" s="1"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75">
-      <c r="A40" s="14"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="31"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="57">
-      <c r="A42" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="M42" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="43.5">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K43" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="L43" s="18"/>
-      <c r="M43" s="19"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A44" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="56"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.2" thickBot="1">
+      <c r="A31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>